--- a/SI_yard data.xlsx
+++ b/SI_yard data.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipsad\OneDrive\Escritorio\Eco-epidemiology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipsad\OneDrive\Escritorio\Eco-epidemiology\Eco-epidemiologia\Tick-NY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAE4D37D-B6DC-458F-8142-82B23766E1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC8143A-E187-4A8E-8A03-8E44501C27F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="560" activeTab="1" xr2:uid="{C489A26F-B928-40D1-A09B-9BACA2787A36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C489A26F-B928-40D1-A09B-9BACA2787A36}"/>
   </bookViews>
   <sheets>
     <sheet name="yard_data" sheetId="1" r:id="rId1"/>
     <sheet name="data dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1693,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97286BD-CF48-4FDD-BC96-1DABBA173150}">
   <dimension ref="A1:AZ67"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12299,8 +12298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317C7AB3-0FB3-4CC6-90B8-53A219B81CE6}">
   <dimension ref="A1:E16382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
